--- a/data/trans_camb/P9_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 24,13</t>
+          <t>-25,66; 32,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 13,09</t>
+          <t>-21,79; 16,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 13,18</t>
+          <t>-17,84; 16,96</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 59,11</t>
+          <t>-41,77; 86,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 29,96</t>
+          <t>-35,98; 40,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 30,06</t>
+          <t>-30,43; 38,94</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 10,5</t>
+          <t>-15,35; 12,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 8,23</t>
+          <t>-9,33; 8,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,52</t>
+          <t>-8,35; 7,66</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>-0,1%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 14,5</t>
+          <t>-19,19; 18,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 11,54</t>
+          <t>-11,65; 12,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 8,94</t>
+          <t>-10,84; 10,6</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,62</t>
+          <t>-4,86; 4,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,31</t>
+          <t>-3,34; 2,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,62</t>
+          <t>-2,65; 2,36</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,73</t>
+          <t>-4,9; 4,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,37</t>
+          <t>-3,36; 2,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,65</t>
+          <t>-2,7; 2,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 6,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,53</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 8,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 8,81</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; 5,47</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 4,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,06%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; 11,74</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 7,01</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 6,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P9_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.961505871153646</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2412714647857417</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.073499109367593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-25,66; 32,44</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-21,79; 16,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,84; 16,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-26.52159912737271</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.40548783264808</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.95056900283917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,89%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,94%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,11%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>30.71476071300767</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.41960258276024</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.35530868873143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-41,77; 86,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-35,98; 40,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-30,43; 38,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.0366318767273075</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.004690870356264894</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02047830094893112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.422804465564919</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3114717721288197</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2730562378051379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,35; 12,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,33; 8,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 7,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.8180329955800067</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.4916107618880307</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3870806940774653</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.376744565516608</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.567377058044117</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.490045371533366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-19,19; 18,86</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 12,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 10,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.25403456277814</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.432558456588501</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.28215526275203</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.93199287291778</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.05707981606041</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.937777345166445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 4,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 2,35</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 2,36</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.01861993323162804</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.02065841679719635</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.0198840706068223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,12%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1640598325629849</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.09121658060098083</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.08006784997827987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 4,64</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 2,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 2,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2094001154782762</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1442001449582494</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1266110160775121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.1979727559078048</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.002625527125466043</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.08007194602164258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-4.147647780329429</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.860427341100026</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.317867665072178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.682223622524776</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.882114828032953</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.53057392291694</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.002035637606229361</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2.672158088346859e-05</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.0008186365522320133</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.04192245093950637</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.02875042375329552</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.02350566271289553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 8,81</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 5,47</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 4,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.04978300024872233</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.02992749761536879</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02626185603649561</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,53%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,31%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.100356752010112</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5768126967280685</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.8174114330503968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 11,74</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 7,01</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 6,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.888064016752812</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.372560040200867</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.545281871263137</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.684056301981304</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.507692090751117</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.897807794096356</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.01375879004412983</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.007049099516585231</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01009577356735273</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.08335360264008312</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.05296081485113349</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0433031710168647</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1282882341256246</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.08258920304833009</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.07560048826077113</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
